--- a/biology/Zoologie/Butch_le_bouledogue/Butch_le_bouledogue.xlsx
+++ b/biology/Zoologie/Butch_le_bouledogue/Butch_le_bouledogue.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Butch le bouledogue est un personnage de fiction de l'univers de Mickey Mouse créé en 1940 par les studios Disney. C'est le pire ennemi de Pluto, qu'il s'agisse d'amour ou de nourriture[1]. Son côté « macho » et « grosse brute » ne laisse pas à l'occasion insensibles les "flirts" officiels de Pluto, Fifi le pékinois et Dinah le teckel.
-Butch apparaît dans 11 courts métrages[1].
+Butch le bouledogue est un personnage de fiction de l'univers de Mickey Mouse créé en 1940 par les studios Disney. C'est le pire ennemi de Pluto, qu'il s'agisse d'amour ou de nourriture. Son côté « macho » et « grosse brute » ne laisse pas à l'occasion insensibles les "flirts" officiels de Pluto, Fifi le pékinois et Dinah le teckel.
+Butch apparaît dans 11 courts métrages.
 Il entretient une certaine ressemblance avec Spike, le rival de Droopy dans les dessins animés de Tex Avery, et un autre Spike (appelé aussi "Killer" ou "Butch"), l'ennemi de Tom le chat dans la série Tom et Jerry.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Filmographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1940 : Pluto a des envies (Bone Trouble)
 1942 : Un os pour deux (T-Bone for Two)
